--- a/modules/web/web/static/ChecklistImportTemplate.xlsx
+++ b/modules/web/web/static/ChecklistImportTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19140" windowHeight="6525"/>
+    <workbookView windowWidth="28800" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Наименование чек-листа</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Оценка</t>
   </si>
   <si>
     <t>Наименование кейса</t>
@@ -40,10 +43,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -86,21 +89,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -109,9 +97,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,15 +211,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,83 +219,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -237,175 +240,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,6 +425,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -444,57 +497,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,128 +533,128 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1061,10 +1064,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.92666666666667" defaultRowHeight="15.75" outlineLevelCol="3"/>
@@ -1094,23 +1097,25 @@
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2"/>
@@ -1148,20 +1153,24 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2"/>
-      <c r="B16" s="4"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" ht="19.5" spans="1:3">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/modules/web/web/static/ChecklistImportTemplate.xlsx
+++ b/modules/web/web/static/ChecklistImportTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12045"/>
+    <workbookView windowWidth="21570" windowHeight="9045" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -77,13 +77,141 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,134 +224,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -234,181 +234,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,52 +428,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,23 +470,58 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,148 +530,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
@@ -730,74 +735,6 @@
     <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="0000000A"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1067,16 +1004,15 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.92666666666667" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.08666666666667" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="31.0666666666667"/>
+    <col min="1" max="1" width="31.0666666666667" customWidth="true"/>
     <col min="2" max="2" width="32.8333333333333" customWidth="true"/>
     <col min="3" max="3" width="70" customWidth="true"/>
-    <col min="4" max="4" width="25.6266666666667"/>
-    <col min="5" max="1025" width="9.09333333333333"/>
+    <col min="4" max="4" width="25.6266666666667" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1101,7 +1037,7 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
@@ -1110,10 +1046,10 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1164,7 +1100,7 @@
     </row>
     <row r="17" ht="19.5" spans="1:3">
       <c r="A17" s="2"/>
-      <c r="B17" s="4"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
